--- a/Portal/LeaveAttachments/Leave_Notification_Form_Template.xlsx
+++ b/Portal/LeaveAttachments/Leave_Notification_Form_Template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APW System\APWPortal-Web-UI\Portal\LeaveAttachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APW SYSTEM\SOURCE CODE\APWPortal-WEB-UI\Portal\LeaveAttachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFDA223-FF8B-4E76-8125-9D892BF335DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC54A40-78FB-4B64-A632-B827C071A9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leave Notification" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Leave Notification'!$A$1:$I$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Leave Notification'!$A$1:$I$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +111,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,57 +271,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,13 +675,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F8A392-19D2-42AF-8956-D5C6AC1645FA}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -678,343 +697,371 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="6"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="6"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="I12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="I13" s="6"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="I14" s="6"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="I15" s="6"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="6"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="6"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="6"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="6"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="6"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="F23" s="18" t="s">
+      <c r="C23" s="22"/>
+      <c r="F23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="I23" s="6"/>
+      <c r="G23" s="22"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="6"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="F26" s="14" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="F26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="6"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="F28" s="15" t="s">
+      <c r="C28" s="20"/>
+      <c r="F28" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="I28" s="6"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="6"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="F31" s="14" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="F31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="6"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="11"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B35:D39"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="B2:H4"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="F26:H26"/>
@@ -1031,10 +1078,24 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B35:D39"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>